--- a/exe/TSV/Excel/W12_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/W12_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC88997-B38E-4D17-9474-B9C15CED0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E36A67-CED8-4ADA-81AB-1B0B05E955B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="4815" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="4215" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W12_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -4682,7 +4682,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H49" s="4">
         <v>384</v>
